--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1111">
   <si>
     <t>anchor score</t>
   </si>
@@ -514,481 +514,481 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
   <si>
     <t>san</t>
@@ -3715,7 +3715,7 @@
         <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3773,7 +3773,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02593445222345201</v>
+        <v>0.02625056696683672</v>
       </c>
       <c r="C3">
         <v>192</v>
@@ -3794,16 +3794,16 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K3">
-        <v>0.005740533231862271</v>
+        <v>0.006986497822123139</v>
       </c>
       <c r="L3">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="M3">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>353</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3823,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02190719372216871</v>
+        <v>0.02217422025745447</v>
       </c>
       <c r="C4">
         <v>137</v>
@@ -3844,28 +3844,28 @@
         <v>379</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="K4">
-        <v>0.00422417454309843</v>
+        <v>0.006451802371050492</v>
       </c>
       <c r="L4">
-        <v>651</v>
+        <v>168</v>
       </c>
       <c r="M4">
-        <v>680</v>
+        <v>168</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2427</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3873,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.00990388253509872</v>
+        <v>0.01002460084675305</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3894,28 +3894,28 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="K5">
-        <v>0.003894788268497721</v>
+        <v>0.005740533231862271</v>
       </c>
       <c r="L5">
-        <v>409</v>
+        <v>133</v>
       </c>
       <c r="M5">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2779</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3923,7 +3923,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009169213516780725</v>
+        <v>0.009280976956120913</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -3944,28 +3944,28 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>0.003758061152059763</v>
+        <v>0.00422417454309843</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>651</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>680</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>210</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3973,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008577013871492517</v>
+        <v>0.008681558996087137</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -3994,28 +3994,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0.003746860525302137</v>
+        <v>0.003894788268497721</v>
       </c>
       <c r="L7">
-        <v>215</v>
+        <v>409</v>
       </c>
       <c r="M7">
-        <v>218</v>
+        <v>422</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>165</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4023,7 +4023,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00815836751902092</v>
+        <v>0.008257809767983531</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -4044,16 +4044,16 @@
         <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K8">
-        <v>0.003657828124700673</v>
+        <v>0.003758061152059763</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4073,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007486631486247754</v>
+        <v>0.00757788595234174</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -4094,28 +4094,28 @@
         <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="K9">
-        <v>0.003301815129180645</v>
+        <v>0.003746860525302137</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4123,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006748358426042362</v>
+        <v>0.006830614090196602</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4144,16 +4144,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K10">
-        <v>0.003068444081574107</v>
+        <v>0.003657828124700673</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4173,7 +4173,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006748358426042362</v>
+        <v>0.006830614090196602</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4194,28 +4194,28 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="K11">
-        <v>0.003060675582147693</v>
+        <v>0.003301815129180645</v>
       </c>
       <c r="L11">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1699</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4223,7 +4223,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006748358426042362</v>
+        <v>0.006830614090196602</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -4244,16 +4244,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K12">
-        <v>0.002986604157439375</v>
+        <v>0.003068444081574107</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4273,7 +4273,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006483613055863003</v>
+        <v>0.00656264174170918</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4294,28 +4294,28 @@
         <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.002953697030636972</v>
+        <v>0.003060675582147693</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>421</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>444</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4323,7 +4323,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006483613055863003</v>
+        <v>0.00656264174170918</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4344,16 +4344,16 @@
         <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K14">
-        <v>0.002902457528495663</v>
+        <v>0.002986604157439375</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4373,7 +4373,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006483613055863003</v>
+        <v>0.00656264174170918</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -4394,28 +4394,28 @@
         <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
       <c r="K15">
-        <v>0.002902457528495663</v>
+        <v>0.002953697030636972</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4423,7 +4423,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006483613055863003</v>
+        <v>0.00656264174170918</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -4444,16 +4444,16 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K16">
-        <v>0.002771451365611823</v>
+        <v>0.002902457528495663</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4473,7 +4473,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006483613055863003</v>
+        <v>0.00656264174170918</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -4494,16 +4494,16 @@
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K17">
-        <v>0.002726384112280427</v>
+        <v>0.002902457528495663</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4523,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006207586895886148</v>
+        <v>0.006283251102005638</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -4544,28 +4544,28 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="K18">
-        <v>0.002706195444263096</v>
+        <v>0.002771451365611823</v>
       </c>
       <c r="L18">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4573,7 +4573,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005614973614685815</v>
+        <v>0.005683414464256305</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4594,16 +4594,16 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K19">
-        <v>0.002633937288392061</v>
+        <v>0.002726384112280427</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>278</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4623,7 +4623,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005614973614685815</v>
+        <v>0.005683414464256305</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4644,28 +4644,28 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K20">
-        <v>0.002566234070605623</v>
+        <v>0.002706195444263096</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4673,7 +4673,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005614973614685815</v>
+        <v>0.005683414464256305</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4694,28 +4694,28 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="K21">
-        <v>0.002499096715477895</v>
+        <v>0.002633937288392061</v>
       </c>
       <c r="L21">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>683</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4723,7 +4723,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005614973614685815</v>
+        <v>0.005683414464256305</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4744,28 +4744,28 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>336</v>
+        <v>174</v>
       </c>
       <c r="K22">
-        <v>0.002488836797866146</v>
+        <v>0.002566234070605623</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4773,7 +4773,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4794,28 +4794,28 @@
         <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K23">
-        <v>0.002449861536328288</v>
+        <v>0.002499096715477895</v>
       </c>
       <c r="L23">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="M23">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>736</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4823,7 +4823,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4844,16 +4844,16 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K24">
-        <v>0.002438552083133782</v>
+        <v>0.002488836797866146</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>201</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4873,7 +4873,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4894,28 +4894,28 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>338</v>
+        <v>171</v>
       </c>
       <c r="K25">
-        <v>0.002438552083133782</v>
+        <v>0.002449861536328288</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>440</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4923,7 +4923,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4944,16 +4944,16 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K26">
-        <v>0.00238720839431743</v>
+        <v>0.002438552083133782</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4973,7 +4973,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4994,16 +4994,16 @@
         <v>244</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K27">
-        <v>0.00238720839431743</v>
+        <v>0.002438552083133782</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5023,7 +5023,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -5044,16 +5044,16 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K28">
-        <v>0.00233473586806797</v>
+        <v>0.00238720839431743</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5073,7 +5073,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5094,16 +5094,16 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K29">
-        <v>0.002281056603722624</v>
+        <v>0.00238720839431743</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5123,7 +5123,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5144,28 +5144,28 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="K30">
-        <v>0.002237304239184166</v>
+        <v>0.00233473586806797</v>
       </c>
       <c r="L30">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>700</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5173,7 +5173,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005293847892170508</v>
+        <v>0.005358374543959123</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -5194,16 +5194,16 @@
         <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K31">
-        <v>0.002169717617772779</v>
+        <v>0.002281056603722624</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5223,7 +5223,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5244,28 +5244,28 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="K32">
-        <v>0.002169717617772779</v>
+        <v>0.002237304239184166</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5273,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5294,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K33">
         <v>0.002169717617772779</v>
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5323,7 +5323,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5344,7 +5344,7 @@
         <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K34">
         <v>0.002169717617772779</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5373,7 +5373,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5394,28 +5394,28 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="K35">
-        <v>0.002147249448090089</v>
+        <v>0.002169717617772779</v>
       </c>
       <c r="L35">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5423,7 +5423,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5444,28 +5444,28 @@
         <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="K36">
-        <v>0.002132733901751099</v>
+        <v>0.002169717617772779</v>
       </c>
       <c r="L36">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5473,7 +5473,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5494,28 +5494,28 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="K37">
-        <v>0.002111848052445317</v>
+        <v>0.002147249448090089</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5523,7 +5523,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5544,28 +5544,28 @@
         <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K38">
-        <v>0.002099728479149128</v>
+        <v>0.002132733901751099</v>
       </c>
       <c r="L38">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="M38">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5573,7 +5573,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00495194126754936</v>
+        <v>0.005012300423376526</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5594,28 +5594,28 @@
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="K39">
-        <v>0.0020840503195744</v>
+        <v>0.002111848052445317</v>
       </c>
       <c r="L39">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1036</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5623,7 +5623,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5644,28 +5644,28 @@
         <v>18</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K40">
-        <v>0.002076400089255206</v>
+        <v>0.002099728479149128</v>
       </c>
       <c r="L40">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M40">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>63</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5673,7 +5673,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5694,28 +5694,28 @@
         <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="K41">
-        <v>0.00205234740050523</v>
+        <v>0.0020840503195744</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>59</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5723,7 +5723,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5744,7 +5744,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K42">
         <v>0.00205234740050523</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5773,7 +5773,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5794,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K43">
         <v>0.00205234740050523</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5823,7 +5823,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5844,16 +5844,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K44">
-        <v>0.001991069438292917</v>
+        <v>0.00205234740050523</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5873,7 +5873,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004584606758390362</v>
+        <v>0.004640488478060457</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5894,7 +5894,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K45">
         <v>0.001991069438292917</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5923,7 +5923,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5944,28 +5944,28 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="K46">
-        <v>0.001936045945895209</v>
+        <v>0.001991069438292917</v>
       </c>
       <c r="L46">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5973,7 +5973,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5994,28 +5994,28 @@
         <v>6</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="K47">
-        <v>0.001927844693912756</v>
+        <v>0.001936045945895209</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6023,7 +6023,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6044,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K48">
         <v>0.001927844693912756</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6073,7 +6073,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6094,28 +6094,28 @@
         <v>75</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="K49">
-        <v>0.00188211798310086</v>
+        <v>0.001927844693912756</v>
       </c>
       <c r="L49">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6123,7 +6123,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6173,7 +6173,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6223,7 +6223,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6273,7 +6273,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6294,7 +6294,7 @@
         <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K53">
         <v>0.001826884550095419</v>
@@ -6323,7 +6323,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6344,7 +6344,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K54">
         <v>0.001799526743846965</v>
@@ -6373,7 +6373,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004185154231435065</v>
+        <v>0.004236167028794216</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6423,7 +6423,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6473,7 +6473,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6523,7 +6523,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6573,7 +6573,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6623,7 +6623,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6644,7 +6644,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K60">
         <v>0.001775938251192877</v>
@@ -6673,7 +6673,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6723,7 +6723,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6773,7 +6773,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6823,7 +6823,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6973,7 +6973,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003743315743123877</v>
+        <v>0.00378894297617087</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7023,7 +7023,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00335235814536218</v>
+        <v>0.003393220000693619</v>
       </c>
       <c r="C68">
         <v>29</v>
@@ -7044,7 +7044,7 @@
         <v>2427</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K68">
         <v>0.001670983363270382</v>
@@ -7073,7 +7073,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7094,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K69">
         <v>0.001670983363270382</v>
@@ -7123,7 +7123,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7173,7 +7173,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7223,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7273,7 +7273,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7323,7 +7323,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7373,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7394,7 +7394,7 @@
         <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K75">
         <v>0.001609963103493107</v>
@@ -7423,7 +7423,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7444,7 +7444,7 @@
         <v>35</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K76">
         <v>0.001585432299168861</v>
@@ -7473,7 +7473,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7523,7 +7523,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7573,7 +7573,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7623,7 +7623,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7673,7 +7673,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7723,7 +7723,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7773,7 +7773,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7823,7 +7823,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003241806527931501</v>
+        <v>0.00328132087085459</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7844,7 +7844,7 @@
         <v>20</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K84">
         <v>0.001551467814878599</v>
@@ -7873,7 +7873,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002689925295910885</v>
+        <v>0.002722712764769471</v>
       </c>
       <c r="C85">
         <v>23</v>
@@ -7894,7 +7894,7 @@
         <v>1699</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K85">
         <v>0.001529366132962466</v>
@@ -7923,7 +7923,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7973,7 +7973,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -8023,7 +8023,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8123,7 +8123,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8173,7 +8173,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8223,7 +8223,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8323,7 +8323,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8373,7 +8373,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8423,7 +8423,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8473,7 +8473,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8523,7 +8523,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8723,7 +8723,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002646923946085254</v>
+        <v>0.002679187271979562</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8773,7 +8773,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002610922167272611</v>
+        <v>0.002642746667894162</v>
       </c>
       <c r="C103">
         <v>13</v>
@@ -8823,7 +8823,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8873,7 +8873,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9044,7 +9044,7 @@
         <v>22</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K108">
         <v>0.001402388993209301</v>
@@ -9073,7 +9073,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K109">
         <v>0.001337744159466187</v>
@@ -9123,7 +9123,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9173,7 +9173,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9223,7 +9223,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9473,7 +9473,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9523,7 +9523,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9573,7 +9573,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9723,7 +9723,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9773,7 +9773,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9823,7 +9823,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K124">
         <v>0.001221359650782144</v>
@@ -9873,7 +9873,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9923,7 +9923,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10023,7 +10023,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10073,7 +10073,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10123,7 +10123,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10173,7 +10173,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10223,7 +10223,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10273,7 +10273,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10373,7 +10373,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10423,7 +10423,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10473,7 +10473,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10523,7 +10523,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10573,7 +10573,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10623,7 +10623,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10694,7 +10694,7 @@
         <v>5</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K141">
         <v>0.001128089917338703</v>
@@ -10723,7 +10723,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10823,7 +10823,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10873,7 +10873,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10923,7 +10923,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10973,7 +10973,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11023,7 +11023,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11073,7 +11073,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11123,7 +11123,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11173,7 +11173,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11223,7 +11223,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11423,7 +11423,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11523,7 +11523,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001871657871561938</v>
+        <v>0.001894471488085435</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11573,7 +11573,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00186543486050327</v>
+        <v>0.001888172624815702</v>
       </c>
       <c r="C159">
         <v>8</v>
@@ -11623,7 +11623,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001821359754729216</v>
+        <v>0.00184356028807832</v>
       </c>
       <c r="C160">
         <v>9</v>
@@ -11673,25 +11673,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001817964747637287</v>
+        <v>0.001684498323211769</v>
       </c>
       <c r="C161">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>453</v>
@@ -11723,25 +11723,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001703732632160054</v>
+        <v>0.001629038355751821</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>454</v>
@@ -11773,25 +11773,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00166421324686097</v>
+        <v>0.001603203046738852</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>455</v>
@@ -11823,25 +11823,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001609421139771575</v>
+        <v>0.00144213916007747</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D164">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>138</v>
+        <v>1036</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>456</v>
@@ -11873,25 +11873,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001583896944880035</v>
+        <v>0.001437357610661467</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>457</v>
@@ -11923,25 +11923,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001424772622772243</v>
+        <v>0.001427443213874294</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1036</v>
+        <v>736</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>458</v>
@@ -11973,25 +11973,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001420048653760828</v>
+        <v>0.001411932663212434</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>459</v>
@@ -12023,25 +12023,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001410253648185287</v>
+        <v>0.001289213687612903</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
       <c r="D168">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>736</v>
+        <v>19</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>460</v>
@@ -12073,28 +12073,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001394929878774607</v>
+        <v>0.001288024140652478</v>
       </c>
       <c r="C169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>531</v>
+        <v>43</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K169">
         <v>0.001087435247710363</v>
@@ -12123,28 +12123,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001273688710398405</v>
+        <v>0.001258038408475248</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D170">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K170">
         <v>0.001086285843120843</v>
@@ -12173,13 +12173,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001272513488207902</v>
+        <v>0.001196794033083284</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E171">
         <v>0.98</v>
@@ -12191,10 +12191,10 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K171">
         <v>0.001065722172071995</v>
@@ -12223,25 +12223,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001242888850404153</v>
+        <v>0.001175862233560699</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E172">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>461</v>
@@ -12273,25 +12273,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001182381992416489</v>
+        <v>0.001169436604370947</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D173">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E173">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>462</v>
@@ -12323,25 +12323,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001161702257942366</v>
+        <v>0.001081722161345946</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E174">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F174">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>463</v>
@@ -12373,25 +12373,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001155354007505042</v>
+        <v>0.001058950928816458</v>
       </c>
       <c r="C175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>464</v>
@@ -12423,13 +12423,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001068695839900035</v>
+        <v>0.001051199633135306</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E176">
         <v>0.99</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>465</v>
@@ -12473,25 +12473,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001046198823250787</v>
+        <v>0.001043829196151112</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E177">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>466</v>
@@ -12523,25 +12523,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00103854087027146</v>
+        <v>0.001037093352143048</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E178">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F178">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>467</v>
@@ -12573,25 +12573,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001031259189610086</v>
+        <v>0.0009744723609827839</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>468</v>
@@ -12623,25 +12623,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001024604460025295</v>
+        <v>0.0009692805981785331</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D180">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E180">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F180">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>469</v>
@@ -12673,25 +12673,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009627375637604333</v>
+        <v>0.000962055777250204</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E181">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F181">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>470</v>
@@ -12723,25 +12723,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0009576083212350264</v>
+        <v>0.0009032240781484691</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E182">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F182">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>471</v>
@@ -12773,25 +12773,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009504705030909284</v>
+        <v>0.0008823760752136745</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E183">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>472</v>
@@ -12823,13 +12823,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008923472674478277</v>
+        <v>0.0008819259320276621</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E184">
         <v>0.98</v>
@@ -12841,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>473</v>
@@ -12873,25 +12873,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008717503204656965</v>
+        <v>0.0008819259320276621</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>474</v>
@@ -12923,25 +12923,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008713055979968027</v>
+        <v>0.0008189842377587467</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>475</v>
@@ -12973,25 +12973,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0008713055979968027</v>
+        <v>0.0008074715015104291</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>476</v>
@@ -13023,25 +13023,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0008091218605962916</v>
+        <v>0.0008050163970931939</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F188">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>477</v>
@@ -13073,25 +13073,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007977477630931633</v>
+        <v>0.0007604779834048138</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>31</v>
+        <v>502</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>478</v>
@@ -13123,25 +13123,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007953222235498533</v>
+        <v>0.000747391933455036</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E190">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F190">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>479</v>
@@ -13173,25 +13173,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007513201506281946</v>
+        <v>0.0007284920436499045</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E191">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>502</v>
+        <v>26</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>480</v>
@@ -13223,25 +13223,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007383916855918023</v>
+        <v>0.0007189435079936562</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E192">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>481</v>
@@ -13273,25 +13273,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007197193921590957</v>
+        <v>0.000717399138663282</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>32</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>482</v>
@@ -13323,25 +13323,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000710285841939257</v>
+        <v>0.0006975849940706108</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>483</v>
@@ -13373,25 +13373,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007087600702229905</v>
+        <v>0.0006880332458446312</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>484</v>
@@ -13423,25 +13423,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006891845316475231</v>
+        <v>0.0006865078436139059</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F196">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>485</v>
@@ -13473,25 +13473,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006797478075443804</v>
+        <v>0.0006830694308675702</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D197">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>486</v>
@@ -13523,25 +13523,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006782407745220358</v>
+        <v>0.0006726249590474938</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>487</v>
@@ -13573,25 +13573,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006748437678513987</v>
+        <v>0.0006726249590474938</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>488</v>
@@ -13623,7 +13623,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006645250705158644</v>
+        <v>0.0006726249590474938</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>489</v>
@@ -13673,25 +13673,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006645250705158644</v>
+        <v>0.0006630225436563794</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>490</v>
@@ -13723,25 +13723,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006645250705158644</v>
+        <v>0.0006467986500300934</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D202">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="F202">
-        <v>0.06999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>491</v>
@@ -13773,25 +13773,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000655038289392043</v>
+        <v>0.0006402046481951652</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>492</v>
@@ -13823,25 +13823,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006390097672400894</v>
+        <v>0.0006231227624016295</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E204">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.83</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>493</v>
@@ -13873,25 +13873,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006324951717357201</v>
+        <v>0.0005947821384691053</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>494</v>
@@ -13923,25 +13923,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006156189895352144</v>
+        <v>0.0005726224795209846</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>93</v>
+        <v>902</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>495</v>
@@ -13973,13 +13973,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005876196492432725</v>
+        <v>0.0005626118799312605</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E207">
         <v>0.95</v>
@@ -13991,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>496</v>
@@ -14023,25 +14023,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005657268414801463</v>
+        <v>0.0005479986115107792</v>
       </c>
       <c r="C208">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>902</v>
+        <v>105</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>497</v>
@@ -14073,25 +14073,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005558367915960506</v>
+        <v>0.0005479986115107792</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>498</v>
@@ -14123,25 +14123,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005413994991688723</v>
+        <v>0.0005452070419245176</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>499</v>
@@ -14173,25 +14173,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005413994991688723</v>
+        <v>0.0005452070419245176</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>500</v>
@@ -14223,25 +14223,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005386415462395201</v>
+        <v>0.0005272621108188183</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>501</v>
@@ -14273,13 +14273,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005386415462395201</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>0.9399999999999999</v>
@@ -14291,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>502</v>
@@ -14323,25 +14323,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005209127116965616</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E214">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F214">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>503</v>
@@ -14373,7 +14373,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>504</v>
@@ -14423,7 +14423,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>505</v>
@@ -14473,7 +14473,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>506</v>
@@ -14523,7 +14523,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>507</v>
@@ -14573,7 +14573,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>508</v>
@@ -14623,7 +14623,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0005204554700642928</v>
+        <v>0.0005267992958734905</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14641,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>509</v>
@@ -14673,13 +14673,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0005204554700642928</v>
+        <v>0.0005072777957661951</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E221">
         <v>0.9399999999999999</v>
@@ -14691,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>510</v>
@@ -14723,13 +14723,13 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0005204554700642928</v>
+        <v>0.0005072777957661951</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E222">
         <v>0.9399999999999999</v>
@@ -14741,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>511</v>
@@ -14773,7 +14773,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0005011690518889304</v>
+        <v>0.0005072777957661951</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>512</v>
@@ -14823,28 +14823,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0005011690518889304</v>
+        <v>0.0004780110619940786</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K224">
         <v>0.000969872146010612</v>
@@ -14873,28 +14873,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0005011690518889304</v>
+        <v>0.0004643522238521459</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K225">
         <v>0.000950358737342857</v>
@@ -14923,28 +14923,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004722547541631578</v>
+        <v>0.0004643522238521459</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E226">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K226">
         <v>0.0009379737517924722</v>
@@ -14973,28 +14973,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0004587603985681974</v>
+        <v>0.0004345006921104567</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E227">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F227">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K227">
         <v>0.0009372721811802159</v>
@@ -15023,28 +15023,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0004587603985681974</v>
+        <v>0.0004150822278722713</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K228">
         <v>0.0009125389469955408</v>
@@ -15073,28 +15073,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004292683451306563</v>
+        <v>0.0004150822278722713</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K229">
         <v>0.0008710370754296586</v>
@@ -15123,25 +15123,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.00041008372204521</v>
+        <v>0.0004090713843234465</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>513</v>
@@ -15173,25 +15173,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.00041008372204521</v>
+        <v>0.000380990948254132</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>514</v>
@@ -15223,25 +15223,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004041452623145466</v>
+        <v>0.0003575282123901809</v>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>515</v>
@@ -15273,25 +15273,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003764029766498841</v>
+        <v>0.0003520736517905563</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E233">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F233">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>516</v>
@@ -15323,25 +15323,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0003532227838919965</v>
+        <v>0.0003247927237102045</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>517</v>
@@ -15373,25 +15373,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0003478339082364877</v>
+        <v>0.0003247927237102045</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>518</v>
@@ -15423,7 +15423,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.000320881502720632</v>
+        <v>0.0003247927237102045</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>519</v>
@@ -15473,25 +15473,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.000320881502720632</v>
+        <v>0.0002892571498444774</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>520</v>
@@ -15523,25 +15523,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.000320881502720632</v>
+        <v>0.0002892571498444774</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F238">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>521</v>
@@ -15573,25 +15573,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.000285773855567032</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>522</v>
@@ -15623,25 +15623,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.000285773855567032</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>523</v>
@@ -15673,7 +15673,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002853229571722829</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15691,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>524</v>
@@ -15723,7 +15723,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002853229571722829</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>525</v>
@@ -15773,7 +15773,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002853229571722829</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>526</v>
@@ -15823,7 +15823,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002853229571722829</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>527</v>
@@ -15873,7 +15873,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002853229571722829</v>
+        <v>0.0002888007554543195</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15891,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>528</v>
@@ -15923,25 +15923,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002853229571722829</v>
+        <v>0.0002489536666582136</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F246">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>529</v>
@@ -15973,25 +15973,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002853229571722829</v>
+        <v>0.0002489536666582136</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F247">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>530</v>
@@ -16023,7 +16023,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002459557152406398</v>
+        <v>0.0002489536666582136</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>531</v>
@@ -16073,7 +16073,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002459557152406398</v>
+        <v>0.0002489536666582136</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16091,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>532</v>
@@ -16123,25 +16123,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002459557152406398</v>
+        <v>0.0002371524093009365</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="F250">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>533</v>
@@ -16173,25 +16173,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002459557152406398</v>
+        <v>0.0002045356921617232</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F251">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>534</v>
@@ -16223,25 +16223,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002342965710592734</v>
+        <v>0.0002045356921617232</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>535</v>
@@ -16273,7 +16273,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002020726311572733</v>
+        <v>0.0002045356921617232</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16291,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>536</v>
@@ -16323,25 +16323,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002020726311572733</v>
+        <v>0.0001806600374691777</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>537</v>
@@ -16373,25 +16373,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002020726311572733</v>
+        <v>0.0001720352800104441</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>538</v>
@@ -16423,25 +16423,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001784844920245177</v>
+        <v>0.0001720352800104441</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F256">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>539</v>
@@ -16473,25 +16473,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001699635956745469</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>540</v>
@@ -16523,25 +16523,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001699635956745469</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E258">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F258">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>541</v>
@@ -16573,7 +16573,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16591,7 +16591,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>542</v>
@@ -16623,7 +16623,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>543</v>
@@ -16673,7 +16673,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16691,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>544</v>
@@ -16723,7 +16723,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16741,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>545</v>
@@ -16773,7 +16773,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16791,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>546</v>
@@ -16823,7 +16823,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>547</v>
@@ -16873,7 +16873,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001529222453313177</v>
+        <v>0.0001547862128415707</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>548</v>
@@ -16923,25 +16923,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001529222453313177</v>
+        <v>0.0001100665411029218</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>549</v>
@@ -16973,25 +16973,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001529222453313177</v>
+        <v>0.0001038690618712819</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F267">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>550</v>
@@ -17023,25 +17023,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001087410971062283</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
         <v>4</v>
       </c>
-      <c r="D268">
-        <v>13</v>
-      </c>
       <c r="E268">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F268">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>551</v>
@@ -17073,25 +17073,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001026182491981487</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E269">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F269">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>552</v>
@@ -17123,7 +17123,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17141,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>553</v>
@@ -17173,7 +17173,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>554</v>
@@ -17223,7 +17223,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>555</v>
@@ -17273,7 +17273,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17291,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>556</v>
@@ -17323,7 +17323,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17341,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>557</v>
@@ -17373,7 +17373,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>558</v>
@@ -17423,7 +17423,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17441,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>559</v>
@@ -17473,7 +17473,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>560</v>
@@ -17523,7 +17523,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>561</v>
@@ -17573,7 +17573,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>9.812852771513634E-05</v>
+        <v>9.932461522414256E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>562</v>
@@ -17623,25 +17623,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>9.812852771513634E-05</v>
+        <v>9.881304664830343E-05</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F280">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>563</v>
@@ -17673,25 +17673,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>9.812852771513634E-05</v>
+        <v>9.881304664830343E-05</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F281">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>564</v>
@@ -17723,7 +17723,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>9.762311955363336E-05</v>
+        <v>9.881304664830343E-05</v>
       </c>
       <c r="C282">
         <v>2</v>
@@ -17741,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>565</v>
@@ -17773,7 +17773,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>9.762311955363336E-05</v>
+        <v>9.881304664830343E-05</v>
       </c>
       <c r="C283">
         <v>2</v>
@@ -17791,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>566</v>
@@ -17823,25 +17823,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>9.762311955363336E-05</v>
+        <v>7.002311060409814E-05</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F284">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>567</v>
@@ -17873,25 +17873,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>9.762311955363336E-05</v>
+        <v>5.297712594122935E-05</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D285">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E285">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="F285">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>568</v>
@@ -17923,13 +17923,13 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>6.917987785916055E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
         <v>3</v>
-      </c>
-      <c r="D286">
-        <v>9</v>
       </c>
       <c r="E286">
         <v>0.67</v>
@@ -17941,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>569</v>
@@ -17973,25 +17973,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>5.233916446049911E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C287">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E287">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="F287">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>570</v>
@@ -18023,7 +18023,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>571</v>
@@ -18073,7 +18073,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18091,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>572</v>
@@ -18123,7 +18123,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>573</v>
@@ -18173,7 +18173,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -18191,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>574</v>
@@ -18223,7 +18223,7 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -18241,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>575</v>
@@ -18273,7 +18273,7 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -18291,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>576</v>
@@ -18323,7 +18323,7 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>577</v>
@@ -18373,7 +18373,7 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -18391,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>578</v>
@@ -18423,7 +18423,7 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -18441,7 +18441,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>579</v>
@@ -18473,7 +18473,7 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>3.994102110449136E-05</v>
+        <v>4.042786175677057E-05</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -18491,7 +18491,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>580</v>
@@ -18523,25 +18523,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>3.994102110449136E-05</v>
+        <v>2.41965511279528E-05</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="F298">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>581</v>
@@ -18573,25 +18573,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>3.994102110449136E-05</v>
+        <v>1.975640126621638E-05</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E299">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F299">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>582</v>
@@ -18623,25 +18623,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>2.390517126708081E-05</v>
+        <v>1.975640126621638E-05</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300">
         <v>5</v>
       </c>
       <c r="E300">
+        <v>0.6</v>
+      </c>
+      <c r="F300">
         <v>0.4</v>
       </c>
-      <c r="F300">
-        <v>0.6</v>
-      </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>583</v>
@@ -18673,7 +18673,7 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>1.95184906060632E-05</v>
+        <v>1.975640126621638E-05</v>
       </c>
       <c r="C301">
         <v>2</v>
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>584</v>
@@ -18723,25 +18723,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>1.95184906060632E-05</v>
+        <v>0</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E302">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F302">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>585</v>
@@ -18773,25 +18773,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>1.95184906060632E-05</v>
+        <v>0</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E303">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F303">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>586</v>
@@ -18841,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>587</v>
@@ -18891,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>588</v>
@@ -18941,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>589</v>
@@ -18991,7 +18991,7 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>590</v>
@@ -19041,7 +19041,7 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>591</v>
@@ -19091,7 +19091,7 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>592</v>
@@ -19141,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>593</v>
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>594</v>
@@ -19241,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>595</v>
@@ -19341,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>597</v>
@@ -19391,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>598</v>
@@ -19426,10 +19426,10 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E316">
         <v>0.5</v>
@@ -19441,10 +19441,10 @@
         <v>1</v>
       </c>
       <c r="H316">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K316">
         <v>0.0007760603930975561</v>
@@ -19491,10 +19491,10 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K317">
         <v>0.0007300369161466205</v>
@@ -19519,30 +19519,6 @@
       </c>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-      <c r="C318">
-        <v>2</v>
-      </c>
-      <c r="D318">
-        <v>4</v>
-      </c>
-      <c r="E318">
-        <v>0.5</v>
-      </c>
-      <c r="F318">
-        <v>0.5</v>
-      </c>
-      <c r="G318" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318">
-        <v>232</v>
-      </c>
       <c r="J318" s="1" t="s">
         <v>599</v>
       </c>
@@ -19569,30 +19545,6 @@
       </c>
     </row>
     <row r="319" spans="1:17">
-      <c r="A319" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-      <c r="E319">
-        <v>0.5</v>
-      </c>
-      <c r="F319">
-        <v>0.5</v>
-      </c>
-      <c r="G319" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319">
-        <v>43</v>
-      </c>
       <c r="J319" s="1" t="s">
         <v>600</v>
       </c>
@@ -23104,7 +23056,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K454">
         <v>0.0006988939118185736</v>
@@ -23130,7 +23082,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K455">
         <v>0.0006764127468195217</v>
@@ -23156,7 +23108,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K456">
         <v>0.0006493490422138797</v>
@@ -23182,7 +23134,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K457">
         <v>0.0006493490422138797</v>
@@ -23208,7 +23160,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K458">
         <v>0.0006493490422138797</v>
@@ -23234,7 +23186,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K459">
         <v>0.0006271674239426976</v>
@@ -23260,7 +23212,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K460">
         <v>0.0006265120817729108</v>
@@ -23286,7 +23238,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K461">
         <v>0.0006239176830902495</v>
@@ -23312,7 +23264,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K462">
         <v>0.0005947194894725653</v>
@@ -23338,7 +23290,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K463">
         <v>0.0005906419084521316</v>
@@ -23364,7 +23316,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K464">
         <v>0.0005906419084521316</v>
@@ -23390,7 +23342,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K465">
         <v>0.0005671560648986853</v>
@@ -23416,7 +23368,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K466">
         <v>0.0005536604719176609</v>
@@ -23442,7 +23394,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K467">
         <v>0.0005536604719176609</v>
@@ -23468,7 +23420,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K468">
         <v>0.0005536604719176609</v>
@@ -23494,7 +23446,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K469">
         <v>0.0005536604719176609</v>
@@ -23520,7 +23472,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K470">
         <v>0.0005536604719176609</v>
@@ -23546,7 +23498,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K471">
         <v>0.0005536604719176609</v>
@@ -23572,7 +23524,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K472">
         <v>0.0005536604719176609</v>
@@ -23598,7 +23550,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K473">
         <v>0.0005536604719176609</v>
@@ -23624,7 +23576,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K474">
         <v>0.0005232541171972024</v>
@@ -23650,7 +23602,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K475">
         <v>0.0005162140539237903</v>
@@ -23676,7 +23628,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K476">
         <v>0.0005162140539237903</v>
@@ -23702,7 +23654,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K477">
         <v>0.0005162140539237903</v>
@@ -33530,7 +33482,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K855">
         <v>0.0004553211242598197</v>
@@ -33556,7 +33508,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K856">
         <v>0.0004553211242598197</v>
@@ -33582,7 +33534,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K857">
         <v>0.0004399036316862729</v>
@@ -33608,7 +33560,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K858">
         <v>0.0004399036316862729</v>
@@ -33634,7 +33586,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K859">
         <v>0.0004269988525969605</v>
@@ -33660,7 +33612,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K860">
         <v>0.0003617169190621429</v>
@@ -33686,7 +33638,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K861">
         <v>0.0003617169190621429</v>
@@ -33712,7 +33664,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K862">
         <v>0.0003242878362267994</v>
@@ -33738,7 +33690,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K863">
         <v>0.0003126507290278567</v>
@@ -33764,7 +33716,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K864">
         <v>0.0003037896637983203</v>
@@ -33790,7 +33742,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K865">
         <v>0.0002818187690450551</v>
@@ -33816,7 +33768,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K866">
         <v>0.0002552170458563196</v>
@@ -33842,7 +33794,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K867">
         <v>0.0002413735212624722</v>
@@ -33868,7 +33820,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K868">
         <v>0.0002413735212624722</v>
@@ -33894,7 +33846,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K869">
         <v>0.0002413735212624722</v>
@@ -33920,7 +33872,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K870">
         <v>0.0002403380006826673</v>
@@ -33946,7 +33898,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K871">
         <v>0.0002265935228874927</v>
@@ -33972,7 +33924,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K872">
         <v>0.0002007639290142288</v>
@@ -33998,7 +33950,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K873">
         <v>0.0002007639290142288</v>
@@ -34024,7 +33976,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K874">
         <v>0.0002007639290142288</v>
@@ -34050,7 +34002,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K875">
         <v>0.0002007639290142288</v>
@@ -34076,7 +34028,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K876">
         <v>0.0002007639290142288</v>
@@ -34102,7 +34054,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K877">
         <v>0.0002007639290142288</v>
@@ -34128,7 +34080,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K878">
         <v>0.0002007639290142288</v>
@@ -34154,7 +34106,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K879">
         <v>0.0001699446300595312</v>
@@ -34180,7 +34132,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K880">
         <v>0.0001699446300595312</v>
@@ -34206,7 +34158,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K881">
         <v>0.0001602258166066952</v>
@@ -34232,7 +34184,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K882">
         <v>0.0001602258166066952</v>
@@ -34258,7 +34210,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K883">
         <v>0.0001602258166066952</v>
@@ -34284,7 +34236,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K884">
         <v>0.0001602258166066952</v>
@@ -34310,7 +34262,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K885">
         <v>0.0001201690003413337</v>
@@ -34336,7 +34288,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K886">
         <v>0.0001201690003413337</v>
@@ -34362,7 +34314,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K887">
         <v>0.0001201690003413337</v>
@@ -34388,7 +34340,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K888">
         <v>0.0001193168001195108</v>
@@ -34414,7 +34366,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K889">
         <v>8.880439493518243E-05</v>
@@ -34440,7 +34392,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K890">
         <v>8.133933389765948E-05</v>
@@ -34466,7 +34418,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K891">
         <v>8.133933389765948E-05</v>
@@ -34492,7 +34444,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K892">
         <v>8.133933389765948E-05</v>
@@ -34518,7 +34470,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K893">
         <v>8.133933389765948E-05</v>
@@ -34544,7 +34496,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K894">
         <v>8.133933389765948E-05</v>
@@ -34570,7 +34522,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K895">
         <v>8.133933389765948E-05</v>
@@ -34596,7 +34548,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K896">
         <v>8.133933389765948E-05</v>
@@ -34622,7 +34574,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K897">
         <v>8.133933389765948E-05</v>
@@ -34648,7 +34600,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K898">
         <v>8.133933389765948E-05</v>
@@ -34674,7 +34626,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K899">
         <v>7.829183775794875E-05</v>
@@ -34700,7 +34652,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K900">
         <v>7.829183775794875E-05</v>
@@ -34726,7 +34678,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K901">
         <v>7.600154904483325E-05</v>
@@ -34752,7 +34704,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K902">
         <v>4.52018136049022E-05</v>
@@ -34778,7 +34730,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K903">
         <v>4.52018136049022E-05</v>
@@ -34804,7 +34756,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K904">
         <v>4.52018136049022E-05</v>
@@ -34830,7 +34782,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K905">
         <v>4.52018136049022E-05</v>
@@ -34856,7 +34808,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K906">
         <v>4.52018136049022E-05</v>
@@ -34882,7 +34834,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K907">
         <v>4.52018136049022E-05</v>
@@ -34908,7 +34860,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K908">
         <v>4.52018136049022E-05</v>
@@ -34934,7 +34886,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K909">
         <v>4.52018136049022E-05</v>
@@ -34960,7 +34912,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K910">
         <v>4.52018136049022E-05</v>
@@ -34986,7 +34938,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K911">
         <v>4.52018136049022E-05</v>
@@ -35012,7 +34964,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K912">
         <v>4.52018136049022E-05</v>
@@ -35038,7 +34990,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K913">
         <v>4.52018136049022E-05</v>
@@ -35064,7 +35016,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K914">
         <v>4.33795376864143E-05</v>
@@ -35090,7 +35042,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K915">
         <v>4.168818075719244E-05</v>
@@ -35116,7 +35068,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K916">
         <v>4.105089551906513E-05</v>
@@ -35142,7 +35094,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K917">
         <v>4.105089551906513E-05</v>
@@ -35168,7 +35120,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K918">
         <v>4.105089551906513E-05</v>
@@ -35194,7 +35146,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K919">
         <v>4.105089551906513E-05</v>
@@ -35220,7 +35172,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K920">
         <v>2.60192478809086E-05</v>
@@ -35246,7 +35198,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K921">
         <v>1.841389911724995E-05</v>
@@ -35272,7 +35224,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K922">
         <v>1.502221976815442E-05</v>
@@ -35298,7 +35250,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K923">
         <v>1.502221976815442E-05</v>
@@ -35324,7 +35276,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K924">
         <v>1.502221976815442E-05</v>
@@ -35350,7 +35302,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K925">
         <v>1.502221976815442E-05</v>
@@ -35376,7 +35328,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K926">
         <v>1.502221976815442E-05</v>
@@ -35402,7 +35354,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K927">
         <v>1.502221976815442E-05</v>
@@ -35428,7 +35380,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K928">
         <v>1.502221976815442E-05</v>
@@ -35454,7 +35406,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K929">
         <v>1.502221976815442E-05</v>
@@ -35480,7 +35432,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K930">
         <v>1.502221976815442E-05</v>
@@ -35506,7 +35458,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K931">
         <v>1.502221976815442E-05</v>
@@ -35532,7 +35484,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K932">
         <v>1.502221976815442E-05</v>
@@ -35558,7 +35510,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K933">
         <v>1.502221976815442E-05</v>
@@ -35584,7 +35536,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K934">
         <v>6.357579642389713E-06</v>
@@ -35610,7 +35562,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K935">
         <v>6.357579642389713E-06</v>
@@ -35636,7 +35588,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K936">
         <v>6.357579642389713E-06</v>
@@ -35662,7 +35614,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K937">
         <v>5.190942040986917E-06</v>
@@ -35688,7 +35640,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K938">
         <v>0</v>
@@ -35714,7 +35666,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K939">
         <v>0</v>
@@ -35740,7 +35692,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K940">
         <v>0</v>
@@ -35766,7 +35718,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K941">
         <v>0</v>
@@ -35792,7 +35744,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K942">
         <v>0</v>
@@ -35818,7 +35770,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K943">
         <v>0</v>
@@ -35844,7 +35796,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K944">
         <v>0</v>
@@ -35870,7 +35822,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K945">
         <v>0</v>
@@ -35896,7 +35848,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K946">
         <v>0</v>
@@ -35922,7 +35874,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K947">
         <v>0</v>
@@ -35948,7 +35900,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K948">
         <v>0</v>
@@ -35974,7 +35926,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K949">
         <v>0</v>
@@ -36000,7 +35952,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K950">
         <v>0</v>
@@ -36026,7 +35978,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K951">
         <v>0</v>
@@ -36052,7 +36004,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K952">
         <v>0</v>
@@ -36078,7 +36030,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K953">
         <v>0</v>
